--- a/output/Fishing_LongData.xlsx
+++ b/output/Fishing_LongData.xlsx
@@ -2456,7 +2456,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BEAV_N_06</t>
+          <t>BEAV_N_07</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>PiPr</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2471,17 +2476,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>45°55.423'</t>
+          <t>45°55.518'</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>74°03.933'</t>
+          <t>74°03.762'</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>16:31</t>
+          <t>16:19</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2491,7 +2496,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>N6</t>
+          <t>N7</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2501,17 +2506,15 @@
       </c>
       <c r="K40">
         <v>0</v>
+      </c>
+      <c r="L40">
+        <v>6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BEAV_N_07</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>PiPr</t>
+          <t>BEAV_N_09</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2526,17 +2529,17 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>45°55.518'</t>
+          <t>45°55.423'</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>74°03.762'</t>
+          <t>74°03.933'</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>16:19</t>
+          <t>16:31</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2546,19 +2549,14 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>N7</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Charles</t>
+          <t>N9</t>
         </is>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2602,12 +2600,10 @@
           <t>N11</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Charles</t>
-        </is>
-      </c>
       <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
         <v>0</v>
       </c>
     </row>
@@ -15766,11 +15762,6 @@
           <t>N13</t>
         </is>
       </c>
-      <c r="J276" t="inlineStr">
-        <is>
-          <t>Juliane</t>
-        </is>
-      </c>
       <c r="K276">
         <v>0</v>
       </c>
@@ -20819,11 +20810,6 @@
           <t>N5</t>
         </is>
       </c>
-      <c r="J367" t="inlineStr">
-        <is>
-          <t>Lea</t>
-        </is>
-      </c>
       <c r="K367">
         <v>0</v>
       </c>
@@ -20930,11 +20916,6 @@
           <t>N7</t>
         </is>
       </c>
-      <c r="J369" t="inlineStr">
-        <is>
-          <t>Lea</t>
-        </is>
-      </c>
       <c r="K369">
         <v>0</v>
       </c>
@@ -22745,11 +22726,6 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="J404" t="inlineStr">
-        <is>
-          <t>Lea</t>
-        </is>
-      </c>
       <c r="K404">
         <v>0</v>
       </c>
@@ -22854,11 +22830,6 @@
       <c r="I406" t="inlineStr">
         <is>
           <t>N3</t>
-        </is>
-      </c>
-      <c r="J406" t="inlineStr">
-        <is>
-          <t>Lea</t>
         </is>
       </c>
       <c r="K406">

--- a/output/Fishing_LongData.xlsx
+++ b/output/Fishing_LongData.xlsx
@@ -11362,7 +11362,7 @@
         <v>0</v>
       </c>
       <c r="L198">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199">
@@ -11803,10 +11803,10 @@
         </is>
       </c>
       <c r="K206">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L206">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207">
